--- a/backend/checkpoints/polygon-USDC-EMXN-14.xlsx
+++ b/backend/checkpoints/polygon-USDC-EMXN-14.xlsx
@@ -2085,7 +2085,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2160,92 +2160,126 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0xC35Bd8e35D5C866F90bD8Db563680712560A9765</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
       <c r="B5" t="str">
-        <v>0.150392</v>
+        <v>0</v>
       </c>
       <c r="C5" t="str">
-        <v>3.10791</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
-        <v>59498.32</v>
+        <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>300784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0xE00E509c1968b4D586102a79Fabe9dcefEfb07f9</v>
+        <v>0xC35Bd8e35D5C866F90bD8Db563680712560A9765</v>
       </c>
       <c r="B6" t="str">
-        <v>0.000413</v>
+        <v>0.150392</v>
       </c>
       <c r="C6" t="str">
-        <v>0.008555</v>
+        <v>3.10791</v>
       </c>
       <c r="D6" t="str">
-        <v>163.39</v>
+        <v>59498.32</v>
       </c>
       <c r="E6" t="str">
-        <v>826</v>
+        <v>300784</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0x40f81795f44b96BF88E16E055f2283B9cAEd9466</v>
+        <v>0xE00E509c1968b4D586102a79Fabe9dcefEfb07f9</v>
       </c>
       <c r="B7" t="str">
-        <v>0.016216</v>
+        <v>0.000413</v>
       </c>
       <c r="C7" t="str">
-        <v>0.335112</v>
+        <v>0.008555</v>
       </c>
       <c r="D7" t="str">
-        <v>6415.39</v>
+        <v>163.39</v>
       </c>
       <c r="E7" t="str">
-        <v>32432</v>
+        <v>826</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0xa60209fbC5e75fBE99dAcEe53CD763850615fE10</v>
+        <v>0x40f81795f44b96BF88E16E055f2283B9cAEd9466</v>
       </c>
       <c r="B8" t="str">
-        <v>0.051015</v>
+        <v>0.016216</v>
       </c>
       <c r="C8" t="str">
-        <v>1.054259</v>
+        <v>0.335112</v>
       </c>
       <c r="D8" t="str">
-        <v>20182.63</v>
+        <v>6415.39</v>
       </c>
       <c r="E8" t="str">
-        <v>102030</v>
+        <v>32432</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
+        <v>0xa60209fbC5e75fBE99dAcEe53CD763850615fE10</v>
+      </c>
+      <c r="B9" t="str">
+        <v>0.051015</v>
+      </c>
+      <c r="C9" t="str">
+        <v>1.054259</v>
+      </c>
+      <c r="D9" t="str">
+        <v>20182.63</v>
+      </c>
+      <c r="E9" t="str">
+        <v>102030</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
         <v>0x8087d7785051A23Fb21cb2dc240A409351A9E0a8</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B10" t="str">
         <v>0.661958</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C10" t="str">
         <v>13.679597</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D10" t="str">
         <v>261885.08</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E10" t="str">
         <v>1323917</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+      <c r="B11" t="str">
+        <v>0.247271</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2.413378</v>
+      </c>
+      <c r="D11" t="str">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E11"/>
   </ignoredErrors>
 </worksheet>
 </file>